--- a/config_1.5/shoping_config_cjj.xlsx
+++ b/config_1.5/shoping_config_cjj.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_12.29\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_1.5\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="tge|标签配置" sheetId="6" r:id="rId1"/>
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4081" uniqueCount="1846">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4167" uniqueCount="1882">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -7954,6 +7954,140 @@
   </si>
   <si>
     <t>98880000,40,40,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>庆典礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>庆典礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐庆典-捕鱼</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"5180万","抽奖券*50","双倍奖励*15",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_bag</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_qdlb_cjq","prop_3d_fish_doubled",</t>
+  </si>
+  <si>
+    <t>49800000,50,15,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"2020万","抽奖券*30","双倍奖励*10",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>19800000,30,10,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"990万","抽奖券*20","双倍奖励*5",</t>
+  </si>
+  <si>
+    <t>9800000,20,5,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"483万","抽奖券*3","双倍奖励*3",</t>
+  </si>
+  <si>
+    <t>gift_bag</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4800000,10,3,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"200万","抽奖券*4","双倍奖励*2",</t>
+  </si>
+  <si>
+    <t>2000000,4,2,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000000,4,2,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐庆典-捕鱼</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"60万","抽奖券*1","双倍奖励*1",</t>
+  </si>
+  <si>
+    <t>600000,1,1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐庆典-冲金鸡</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"5180万","抽奖券*50","太阳*20",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_qdlb_cjq","prop_guess_apple_bet_2",</t>
+  </si>
+  <si>
+    <t>49800000,50,20,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"2020万","抽奖券*30","太阳*10",</t>
+  </si>
+  <si>
+    <t>欢乐庆典-冲金鸡</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"990万","抽奖券*20","太阳*2",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9800000,20,2,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"483万","抽奖券*3","水滴*6",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_qdlb_cjq","prop_guess_apple_bet_1",</t>
+  </si>
+  <si>
+    <t>4800000,10,6,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"200万","抽奖券*4","水滴*2",</t>
+  </si>
+  <si>
+    <t>"60万","抽奖券*1","水滴*1",</t>
+  </si>
+  <si>
+    <t>600000,1,1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "actp_no_cjj_gej_exchange" }</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "actp_cjj_gej_exchange" }</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -10884,13 +11018,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN496"/>
+  <dimension ref="A1:AN508"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="1" topLeftCell="V486" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A495" sqref="A495:XFD496"/>
+      <selection pane="bottomRight" activeCell="B511" sqref="B511"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -42633,6 +42767,930 @@
         <v>1</v>
       </c>
     </row>
+    <row r="497" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A497" s="5">
+        <v>496</v>
+      </c>
+      <c r="B497" s="60">
+        <v>10413</v>
+      </c>
+      <c r="C497" s="60"/>
+      <c r="D497" s="60"/>
+      <c r="E497" s="60"/>
+      <c r="F497" s="60">
+        <v>1</v>
+      </c>
+      <c r="G497" s="60" t="s">
+        <v>1847</v>
+      </c>
+      <c r="H497" s="60"/>
+      <c r="I497" s="60" t="s">
+        <v>1848</v>
+      </c>
+      <c r="J497" s="60" t="s">
+        <v>1849</v>
+      </c>
+      <c r="K497" s="60"/>
+      <c r="L497" s="60">
+        <v>-31</v>
+      </c>
+      <c r="M497" s="60">
+        <v>0</v>
+      </c>
+      <c r="N497" s="60">
+        <v>0</v>
+      </c>
+      <c r="O497" s="60" t="s">
+        <v>1850</v>
+      </c>
+      <c r="P497" s="60">
+        <v>49800</v>
+      </c>
+      <c r="Q497" s="60" t="s">
+        <v>1851</v>
+      </c>
+      <c r="R497" s="61" t="s">
+        <v>1852</v>
+      </c>
+      <c r="S497" s="60"/>
+      <c r="T497" s="60"/>
+      <c r="U497" s="60"/>
+      <c r="V497" s="60"/>
+      <c r="W497" s="60" t="s">
+        <v>540</v>
+      </c>
+      <c r="X497" s="60">
+        <v>99999999</v>
+      </c>
+      <c r="Y497" s="60">
+        <v>1609804800</v>
+      </c>
+      <c r="Z497" s="60">
+        <v>1610380799</v>
+      </c>
+      <c r="AA497" s="60">
+        <v>66</v>
+      </c>
+      <c r="AH497" s="6">
+        <v>1</v>
+      </c>
+      <c r="AI497" s="6">
+        <v>1</v>
+      </c>
+      <c r="AL497" s="6">
+        <v>1</v>
+      </c>
+      <c r="AM497" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="498" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A498" s="5">
+        <v>497</v>
+      </c>
+      <c r="B498" s="60">
+        <v>10414</v>
+      </c>
+      <c r="C498" s="60"/>
+      <c r="D498" s="60"/>
+      <c r="E498" s="60"/>
+      <c r="F498" s="60">
+        <v>1</v>
+      </c>
+      <c r="G498" s="60" t="s">
+        <v>1846</v>
+      </c>
+      <c r="H498" s="60"/>
+      <c r="I498" s="60" t="s">
+        <v>1848</v>
+      </c>
+      <c r="J498" s="60" t="s">
+        <v>1853</v>
+      </c>
+      <c r="K498" s="60"/>
+      <c r="L498" s="60">
+        <v>-31</v>
+      </c>
+      <c r="M498" s="60">
+        <v>0</v>
+      </c>
+      <c r="N498" s="60">
+        <v>0</v>
+      </c>
+      <c r="O498" s="60" t="s">
+        <v>498</v>
+      </c>
+      <c r="P498" s="60">
+        <v>19800</v>
+      </c>
+      <c r="Q498" s="60" t="s">
+        <v>1851</v>
+      </c>
+      <c r="R498" s="61" t="s">
+        <v>1854</v>
+      </c>
+      <c r="S498" s="60"/>
+      <c r="T498" s="60"/>
+      <c r="U498" s="60"/>
+      <c r="V498" s="60"/>
+      <c r="W498" s="60" t="s">
+        <v>540</v>
+      </c>
+      <c r="X498" s="60">
+        <v>99999999</v>
+      </c>
+      <c r="Y498" s="60">
+        <v>1609804800</v>
+      </c>
+      <c r="Z498" s="60">
+        <v>1610380799</v>
+      </c>
+      <c r="AA498" s="60">
+        <v>66</v>
+      </c>
+      <c r="AH498" s="6">
+        <v>1</v>
+      </c>
+      <c r="AI498" s="6">
+        <v>1</v>
+      </c>
+      <c r="AL498" s="6">
+        <v>1</v>
+      </c>
+      <c r="AM498" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="499" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A499" s="5">
+        <v>498</v>
+      </c>
+      <c r="B499" s="60">
+        <v>10415</v>
+      </c>
+      <c r="C499" s="60"/>
+      <c r="D499" s="60"/>
+      <c r="E499" s="60"/>
+      <c r="F499" s="60">
+        <v>1</v>
+      </c>
+      <c r="G499" s="60" t="s">
+        <v>1846</v>
+      </c>
+      <c r="H499" s="60"/>
+      <c r="I499" s="60" t="s">
+        <v>1848</v>
+      </c>
+      <c r="J499" s="60" t="s">
+        <v>1855</v>
+      </c>
+      <c r="K499" s="60"/>
+      <c r="L499" s="60">
+        <v>-31</v>
+      </c>
+      <c r="M499" s="60">
+        <v>0</v>
+      </c>
+      <c r="N499" s="60">
+        <v>0</v>
+      </c>
+      <c r="O499" s="60" t="s">
+        <v>1850</v>
+      </c>
+      <c r="P499" s="60">
+        <v>9800</v>
+      </c>
+      <c r="Q499" s="60" t="s">
+        <v>1851</v>
+      </c>
+      <c r="R499" s="61" t="s">
+        <v>1856</v>
+      </c>
+      <c r="S499" s="60"/>
+      <c r="T499" s="60"/>
+      <c r="U499" s="60"/>
+      <c r="V499" s="60"/>
+      <c r="W499" s="60" t="s">
+        <v>540</v>
+      </c>
+      <c r="X499" s="60">
+        <v>99999999</v>
+      </c>
+      <c r="Y499" s="60">
+        <v>1609804800</v>
+      </c>
+      <c r="Z499" s="60">
+        <v>1610380799</v>
+      </c>
+      <c r="AA499" s="60">
+        <v>66</v>
+      </c>
+      <c r="AH499" s="6">
+        <v>1</v>
+      </c>
+      <c r="AI499" s="6">
+        <v>1</v>
+      </c>
+      <c r="AL499" s="6">
+        <v>1</v>
+      </c>
+      <c r="AM499" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="500" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A500" s="5">
+        <v>499</v>
+      </c>
+      <c r="B500" s="60">
+        <v>10416</v>
+      </c>
+      <c r="C500" s="60"/>
+      <c r="D500" s="60"/>
+      <c r="E500" s="60"/>
+      <c r="F500" s="60">
+        <v>1</v>
+      </c>
+      <c r="G500" s="60" t="s">
+        <v>1846</v>
+      </c>
+      <c r="H500" s="60"/>
+      <c r="I500" s="60" t="s">
+        <v>1848</v>
+      </c>
+      <c r="J500" s="60" t="s">
+        <v>1857</v>
+      </c>
+      <c r="K500" s="60"/>
+      <c r="L500" s="60">
+        <v>-31</v>
+      </c>
+      <c r="M500" s="60">
+        <v>0</v>
+      </c>
+      <c r="N500" s="60">
+        <v>0</v>
+      </c>
+      <c r="O500" s="60" t="s">
+        <v>1858</v>
+      </c>
+      <c r="P500" s="60">
+        <v>4800</v>
+      </c>
+      <c r="Q500" s="60" t="s">
+        <v>1851</v>
+      </c>
+      <c r="R500" s="61" t="s">
+        <v>1859</v>
+      </c>
+      <c r="S500" s="60"/>
+      <c r="T500" s="60"/>
+      <c r="U500" s="60"/>
+      <c r="V500" s="60"/>
+      <c r="W500" s="60" t="s">
+        <v>540</v>
+      </c>
+      <c r="X500" s="60">
+        <v>99999999</v>
+      </c>
+      <c r="Y500" s="60">
+        <v>1609804800</v>
+      </c>
+      <c r="Z500" s="60">
+        <v>1610380799</v>
+      </c>
+      <c r="AA500" s="60">
+        <v>66</v>
+      </c>
+      <c r="AH500" s="6">
+        <v>1</v>
+      </c>
+      <c r="AI500" s="6">
+        <v>1</v>
+      </c>
+      <c r="AL500" s="6">
+        <v>1</v>
+      </c>
+      <c r="AM500" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="501" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A501" s="5">
+        <v>500</v>
+      </c>
+      <c r="B501" s="60">
+        <v>10417</v>
+      </c>
+      <c r="C501" s="60"/>
+      <c r="D501" s="60"/>
+      <c r="E501" s="60"/>
+      <c r="F501" s="60">
+        <v>1</v>
+      </c>
+      <c r="G501" s="60" t="s">
+        <v>1847</v>
+      </c>
+      <c r="H501" s="60"/>
+      <c r="I501" s="60" t="s">
+        <v>1848</v>
+      </c>
+      <c r="J501" s="60" t="s">
+        <v>1860</v>
+      </c>
+      <c r="K501" s="60"/>
+      <c r="L501" s="60">
+        <v>-31</v>
+      </c>
+      <c r="M501" s="60">
+        <v>0</v>
+      </c>
+      <c r="N501" s="60">
+        <v>0</v>
+      </c>
+      <c r="O501" s="60" t="s">
+        <v>498</v>
+      </c>
+      <c r="P501" s="60">
+        <v>2000</v>
+      </c>
+      <c r="Q501" s="60" t="s">
+        <v>1851</v>
+      </c>
+      <c r="R501" s="61" t="s">
+        <v>1862</v>
+      </c>
+      <c r="S501" s="60"/>
+      <c r="T501" s="60"/>
+      <c r="U501" s="60"/>
+      <c r="V501" s="60"/>
+      <c r="W501" s="60" t="s">
+        <v>540</v>
+      </c>
+      <c r="X501" s="60">
+        <v>99999999</v>
+      </c>
+      <c r="Y501" s="60">
+        <v>1609804800</v>
+      </c>
+      <c r="Z501" s="60">
+        <v>1610380799</v>
+      </c>
+      <c r="AA501" s="60">
+        <v>66</v>
+      </c>
+      <c r="AH501" s="6">
+        <v>1</v>
+      </c>
+      <c r="AI501" s="6">
+        <v>1</v>
+      </c>
+      <c r="AL501" s="6">
+        <v>1</v>
+      </c>
+      <c r="AM501" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="502" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A502" s="5">
+        <v>501</v>
+      </c>
+      <c r="B502" s="60">
+        <v>10418</v>
+      </c>
+      <c r="C502" s="60"/>
+      <c r="D502" s="60"/>
+      <c r="E502" s="60"/>
+      <c r="F502" s="60">
+        <v>1</v>
+      </c>
+      <c r="G502" s="60" t="s">
+        <v>1847</v>
+      </c>
+      <c r="H502" s="60"/>
+      <c r="I502" s="60" t="s">
+        <v>1863</v>
+      </c>
+      <c r="J502" s="60" t="s">
+        <v>1864</v>
+      </c>
+      <c r="K502" s="60"/>
+      <c r="L502" s="60">
+        <v>-31</v>
+      </c>
+      <c r="M502" s="60">
+        <v>0</v>
+      </c>
+      <c r="N502" s="60">
+        <v>0</v>
+      </c>
+      <c r="O502" s="60" t="s">
+        <v>1850</v>
+      </c>
+      <c r="P502" s="60">
+        <v>600</v>
+      </c>
+      <c r="Q502" s="60" t="s">
+        <v>1851</v>
+      </c>
+      <c r="R502" s="61" t="s">
+        <v>1865</v>
+      </c>
+      <c r="S502" s="60"/>
+      <c r="T502" s="60"/>
+      <c r="U502" s="60"/>
+      <c r="V502" s="60"/>
+      <c r="W502" s="60" t="s">
+        <v>540</v>
+      </c>
+      <c r="X502" s="60">
+        <v>99999999</v>
+      </c>
+      <c r="Y502" s="60">
+        <v>1609804800</v>
+      </c>
+      <c r="Z502" s="60">
+        <v>1610380799</v>
+      </c>
+      <c r="AA502" s="60">
+        <v>66</v>
+      </c>
+      <c r="AH502" s="6">
+        <v>1</v>
+      </c>
+      <c r="AI502" s="6">
+        <v>1</v>
+      </c>
+      <c r="AL502" s="6">
+        <v>1</v>
+      </c>
+      <c r="AM502" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="503" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A503" s="5">
+        <v>502</v>
+      </c>
+      <c r="B503" s="76">
+        <v>10419</v>
+      </c>
+      <c r="C503" s="76"/>
+      <c r="D503" s="76"/>
+      <c r="E503" s="76"/>
+      <c r="F503" s="76">
+        <v>1</v>
+      </c>
+      <c r="G503" s="76" t="s">
+        <v>1847</v>
+      </c>
+      <c r="H503" s="76"/>
+      <c r="I503" s="76" t="s">
+        <v>1866</v>
+      </c>
+      <c r="J503" s="76" t="s">
+        <v>1867</v>
+      </c>
+      <c r="K503" s="76"/>
+      <c r="L503" s="76">
+        <v>-31</v>
+      </c>
+      <c r="M503" s="76">
+        <v>0</v>
+      </c>
+      <c r="N503" s="76">
+        <v>0</v>
+      </c>
+      <c r="O503" s="76" t="s">
+        <v>498</v>
+      </c>
+      <c r="P503" s="76">
+        <v>49800</v>
+      </c>
+      <c r="Q503" s="76" t="s">
+        <v>1868</v>
+      </c>
+      <c r="R503" s="92" t="s">
+        <v>1869</v>
+      </c>
+      <c r="S503" s="76"/>
+      <c r="T503" s="76"/>
+      <c r="U503" s="76"/>
+      <c r="V503" s="76"/>
+      <c r="W503" s="76" t="s">
+        <v>540</v>
+      </c>
+      <c r="X503" s="76">
+        <v>99999999</v>
+      </c>
+      <c r="Y503" s="76">
+        <v>1609804800</v>
+      </c>
+      <c r="Z503" s="76">
+        <v>1610380799</v>
+      </c>
+      <c r="AA503" s="76">
+        <v>67</v>
+      </c>
+      <c r="AH503" s="6">
+        <v>1</v>
+      </c>
+      <c r="AI503" s="6">
+        <v>1</v>
+      </c>
+      <c r="AL503" s="6">
+        <v>1</v>
+      </c>
+      <c r="AM503" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="504" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A504" s="5">
+        <v>503</v>
+      </c>
+      <c r="B504" s="76">
+        <v>10420</v>
+      </c>
+      <c r="C504" s="76"/>
+      <c r="D504" s="76"/>
+      <c r="E504" s="76"/>
+      <c r="F504" s="76">
+        <v>1</v>
+      </c>
+      <c r="G504" s="76" t="s">
+        <v>1847</v>
+      </c>
+      <c r="H504" s="76"/>
+      <c r="I504" s="76" t="s">
+        <v>1866</v>
+      </c>
+      <c r="J504" s="76" t="s">
+        <v>1870</v>
+      </c>
+      <c r="K504" s="76"/>
+      <c r="L504" s="76">
+        <v>-31</v>
+      </c>
+      <c r="M504" s="76">
+        <v>0</v>
+      </c>
+      <c r="N504" s="76">
+        <v>0</v>
+      </c>
+      <c r="O504" s="76" t="s">
+        <v>498</v>
+      </c>
+      <c r="P504" s="76">
+        <v>19800</v>
+      </c>
+      <c r="Q504" s="76" t="s">
+        <v>1868</v>
+      </c>
+      <c r="R504" s="92" t="s">
+        <v>1854</v>
+      </c>
+      <c r="S504" s="76"/>
+      <c r="T504" s="76"/>
+      <c r="U504" s="76"/>
+      <c r="V504" s="76"/>
+      <c r="W504" s="76" t="s">
+        <v>540</v>
+      </c>
+      <c r="X504" s="76">
+        <v>99999999</v>
+      </c>
+      <c r="Y504" s="76">
+        <v>1609804800</v>
+      </c>
+      <c r="Z504" s="76">
+        <v>1610380799</v>
+      </c>
+      <c r="AA504" s="76">
+        <v>67</v>
+      </c>
+      <c r="AH504" s="6">
+        <v>1</v>
+      </c>
+      <c r="AI504" s="6">
+        <v>1</v>
+      </c>
+      <c r="AL504" s="6">
+        <v>1</v>
+      </c>
+      <c r="AM504" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="505" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A505" s="5">
+        <v>504</v>
+      </c>
+      <c r="B505" s="76">
+        <v>10421</v>
+      </c>
+      <c r="C505" s="76"/>
+      <c r="D505" s="76"/>
+      <c r="E505" s="76"/>
+      <c r="F505" s="76">
+        <v>1</v>
+      </c>
+      <c r="G505" s="76" t="s">
+        <v>1847</v>
+      </c>
+      <c r="H505" s="76"/>
+      <c r="I505" s="76" t="s">
+        <v>1871</v>
+      </c>
+      <c r="J505" s="76" t="s">
+        <v>1872</v>
+      </c>
+      <c r="K505" s="76"/>
+      <c r="L505" s="76">
+        <v>-31</v>
+      </c>
+      <c r="M505" s="76">
+        <v>0</v>
+      </c>
+      <c r="N505" s="76">
+        <v>0</v>
+      </c>
+      <c r="O505" s="76" t="s">
+        <v>498</v>
+      </c>
+      <c r="P505" s="76">
+        <v>9800</v>
+      </c>
+      <c r="Q505" s="76" t="s">
+        <v>1868</v>
+      </c>
+      <c r="R505" s="92" t="s">
+        <v>1873</v>
+      </c>
+      <c r="S505" s="76"/>
+      <c r="T505" s="76"/>
+      <c r="U505" s="76"/>
+      <c r="V505" s="76"/>
+      <c r="W505" s="76" t="s">
+        <v>540</v>
+      </c>
+      <c r="X505" s="76">
+        <v>99999999</v>
+      </c>
+      <c r="Y505" s="76">
+        <v>1609804800</v>
+      </c>
+      <c r="Z505" s="76">
+        <v>1610380799</v>
+      </c>
+      <c r="AA505" s="76">
+        <v>67</v>
+      </c>
+      <c r="AH505" s="6">
+        <v>1</v>
+      </c>
+      <c r="AI505" s="6">
+        <v>1</v>
+      </c>
+      <c r="AL505" s="6">
+        <v>1</v>
+      </c>
+      <c r="AM505" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="506" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A506" s="5">
+        <v>505</v>
+      </c>
+      <c r="B506" s="76">
+        <v>10422</v>
+      </c>
+      <c r="C506" s="76"/>
+      <c r="D506" s="76"/>
+      <c r="E506" s="76"/>
+      <c r="F506" s="76">
+        <v>1</v>
+      </c>
+      <c r="G506" s="76" t="s">
+        <v>1846</v>
+      </c>
+      <c r="H506" s="76"/>
+      <c r="I506" s="76" t="s">
+        <v>1871</v>
+      </c>
+      <c r="J506" s="76" t="s">
+        <v>1874</v>
+      </c>
+      <c r="K506" s="76"/>
+      <c r="L506" s="76">
+        <v>-31</v>
+      </c>
+      <c r="M506" s="76">
+        <v>0</v>
+      </c>
+      <c r="N506" s="76">
+        <v>0</v>
+      </c>
+      <c r="O506" s="76" t="s">
+        <v>498</v>
+      </c>
+      <c r="P506" s="76">
+        <v>4800</v>
+      </c>
+      <c r="Q506" s="76" t="s">
+        <v>1875</v>
+      </c>
+      <c r="R506" s="92" t="s">
+        <v>1876</v>
+      </c>
+      <c r="S506" s="76"/>
+      <c r="T506" s="76"/>
+      <c r="U506" s="76"/>
+      <c r="V506" s="76"/>
+      <c r="W506" s="76" t="s">
+        <v>540</v>
+      </c>
+      <c r="X506" s="76">
+        <v>99999999</v>
+      </c>
+      <c r="Y506" s="76">
+        <v>1609804800</v>
+      </c>
+      <c r="Z506" s="76">
+        <v>1610380799</v>
+      </c>
+      <c r="AA506" s="76">
+        <v>67</v>
+      </c>
+      <c r="AH506" s="6">
+        <v>1</v>
+      </c>
+      <c r="AI506" s="6">
+        <v>1</v>
+      </c>
+      <c r="AL506" s="6">
+        <v>1</v>
+      </c>
+      <c r="AM506" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="507" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A507" s="5">
+        <v>506</v>
+      </c>
+      <c r="B507" s="76">
+        <v>10423</v>
+      </c>
+      <c r="C507" s="76"/>
+      <c r="D507" s="76"/>
+      <c r="E507" s="76"/>
+      <c r="F507" s="76">
+        <v>1</v>
+      </c>
+      <c r="G507" s="76" t="s">
+        <v>1846</v>
+      </c>
+      <c r="H507" s="76"/>
+      <c r="I507" s="76" t="s">
+        <v>1871</v>
+      </c>
+      <c r="J507" s="76" t="s">
+        <v>1877</v>
+      </c>
+      <c r="K507" s="76"/>
+      <c r="L507" s="76">
+        <v>-31</v>
+      </c>
+      <c r="M507" s="76">
+        <v>0</v>
+      </c>
+      <c r="N507" s="76">
+        <v>0</v>
+      </c>
+      <c r="O507" s="76" t="s">
+        <v>1850</v>
+      </c>
+      <c r="P507" s="76">
+        <v>2000</v>
+      </c>
+      <c r="Q507" s="76" t="s">
+        <v>1875</v>
+      </c>
+      <c r="R507" s="92" t="s">
+        <v>1861</v>
+      </c>
+      <c r="S507" s="76"/>
+      <c r="T507" s="76"/>
+      <c r="U507" s="76"/>
+      <c r="V507" s="76"/>
+      <c r="W507" s="76" t="s">
+        <v>540</v>
+      </c>
+      <c r="X507" s="76">
+        <v>99999999</v>
+      </c>
+      <c r="Y507" s="76">
+        <v>1609804800</v>
+      </c>
+      <c r="Z507" s="76">
+        <v>1610380799</v>
+      </c>
+      <c r="AA507" s="76">
+        <v>67</v>
+      </c>
+      <c r="AH507" s="6">
+        <v>1</v>
+      </c>
+      <c r="AI507" s="6">
+        <v>1</v>
+      </c>
+      <c r="AL507" s="6">
+        <v>1</v>
+      </c>
+      <c r="AM507" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="508" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A508" s="5">
+        <v>507</v>
+      </c>
+      <c r="B508" s="76">
+        <v>10424</v>
+      </c>
+      <c r="C508" s="76"/>
+      <c r="D508" s="76"/>
+      <c r="E508" s="76"/>
+      <c r="F508" s="76">
+        <v>1</v>
+      </c>
+      <c r="G508" s="76" t="s">
+        <v>1846</v>
+      </c>
+      <c r="H508" s="76"/>
+      <c r="I508" s="76" t="s">
+        <v>1871</v>
+      </c>
+      <c r="J508" s="76" t="s">
+        <v>1878</v>
+      </c>
+      <c r="K508" s="76"/>
+      <c r="L508" s="76">
+        <v>-31</v>
+      </c>
+      <c r="M508" s="76">
+        <v>0</v>
+      </c>
+      <c r="N508" s="76">
+        <v>0</v>
+      </c>
+      <c r="O508" s="76" t="s">
+        <v>1850</v>
+      </c>
+      <c r="P508" s="76">
+        <v>600</v>
+      </c>
+      <c r="Q508" s="76" t="s">
+        <v>1875</v>
+      </c>
+      <c r="R508" s="92" t="s">
+        <v>1879</v>
+      </c>
+      <c r="S508" s="76"/>
+      <c r="T508" s="76"/>
+      <c r="U508" s="76"/>
+      <c r="V508" s="76"/>
+      <c r="W508" s="76" t="s">
+        <v>540</v>
+      </c>
+      <c r="X508" s="76">
+        <v>99999999</v>
+      </c>
+      <c r="Y508" s="76">
+        <v>1609804800</v>
+      </c>
+      <c r="Z508" s="76">
+        <v>1610380799</v>
+      </c>
+      <c r="AA508" s="76">
+        <v>67</v>
+      </c>
+      <c r="AH508" s="6">
+        <v>1</v>
+      </c>
+      <c r="AI508" s="6">
+        <v>1</v>
+      </c>
+      <c r="AL508" s="6">
+        <v>1</v>
+      </c>
+      <c r="AM508" s="6">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -42643,10 +43701,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F66"/>
+  <dimension ref="A1:F68"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B68" sqref="B68"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B71" sqref="B71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -43596,6 +44654,34 @@
       </c>
       <c r="D66" s="77">
         <v>600</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" s="25">
+        <v>66</v>
+      </c>
+      <c r="B67" s="28" t="s">
+        <v>1880</v>
+      </c>
+      <c r="C67" s="25">
+        <v>1</v>
+      </c>
+      <c r="D67" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" s="25">
+        <v>67</v>
+      </c>
+      <c r="B68" s="28" t="s">
+        <v>1881</v>
+      </c>
+      <c r="C68" s="25">
+        <v>1</v>
+      </c>
+      <c r="D68" s="25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
